--- a/Calc_Width_Lifetime.xlsx
+++ b/Calc_Width_Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\CIAE_DNP_NRG\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Si24\root_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0336D2-9B4A-4ED7-B939-95D7460EC8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2D4C12-57D2-49FC-84A0-1962A148D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{54B87DC3-80D2-408F-9ECA-DC6AAEA4FCE2}"/>
+    <workbookView xWindow="9192" yWindow="-60" windowWidth="11436" windowHeight="12000" xr2:uid="{54B87DC3-80D2-408F-9ECA-DC6AAEA4FCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +250,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,12 +1930,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49208F-FE39-4382-98C3-0FBD1F8027CF}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2021,7 +2026,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7">
-        <v>1.9199999999999998E-2</v>
+        <v>72000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -2044,7 +2049,7 @@
       </c>
       <c r="B7" s="3">
         <f>B6/$B$2</f>
-        <v>1.92E-8</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2067,7 +2072,7 @@
       </c>
       <c r="B8" s="2">
         <f>B4/$B$6</f>
-        <v>3.4281872755208336E-14</v>
+        <v>9.1418327347222223E-21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -2090,7 +2095,7 @@
       </c>
       <c r="B9" s="10">
         <f>B8*$B$3</f>
-        <v>34.281872755208333</v>
+        <v>9.1418327347222216E-6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -2113,7 +2118,7 @@
       </c>
       <c r="B10" s="9">
         <f>B9*LN(2)</f>
-        <v>23.76238344458746</v>
+        <v>6.3366355852233222E-6</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>C9</f>
@@ -2162,10 +2167,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>35</v>
+        <v>3.3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.5</v>
       </c>
       <c r="F13" s="4">
         <v>1.1000000000000001</v>
@@ -2185,7 +2193,7 @@
       </c>
       <c r="B14" s="2">
         <f>B13/$B$3</f>
-        <v>3.5000000000000002E-14</v>
+        <v>3.3E-15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -2208,7 +2216,7 @@
       </c>
       <c r="B15" s="8">
         <f>$B$4/B14</f>
-        <v>1.880605591142857E-2</v>
+        <v>0.19945816875757577</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -2231,7 +2239,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15/$B$2</f>
-        <v>1.8806055911428572E-8</v>
+        <v>1.9945816875757577E-7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -2254,11 +2262,15 @@
       </c>
       <c r="B17" s="9">
         <f>B13*LN(2)</f>
-        <v>24.260151319598084</v>
+        <v>2.2873856958478194</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>C13</f>
         <v>fs</v>
+      </c>
+      <c r="D17" s="12">
+        <f>D13*LN(2)</f>
+        <v>0.34657359027997264</v>
       </c>
       <c r="F17" s="4">
         <v>1.5</v>

--- a/Calc_Width_Lifetime.xlsx
+++ b/Calc_Width_Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Si24\root_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2D4C12-57D2-49FC-84A0-1962A148D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09EA32-52D0-4A76-ABD9-A6F9FA2AC163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9192" yWindow="-60" windowWidth="11436" windowHeight="12000" xr2:uid="{54B87DC3-80D2-408F-9ECA-DC6AAEA4FCE2}"/>
+    <workbookView xWindow="8004" yWindow="-24" windowWidth="15144" windowHeight="12000" xr2:uid="{54B87DC3-80D2-408F-9ECA-DC6AAEA4FCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,9 +232,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -253,6 +250,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1931,7 +1934,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1946,7 +1949,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2025,7 +2028,7 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>72000</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2093,7 +2096,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>B8*$B$3</f>
         <v>9.1418327347222216E-6</v>
       </c>
@@ -2116,7 +2119,7 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f>B9*LN(2)</f>
         <v>6.3366355852233222E-6</v>
       </c>
@@ -2166,14 +2169,14 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
-        <v>3.3</v>
+      <c r="B13" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="12">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="F13" s="4">
         <v>1.1000000000000001</v>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="B14" s="2">
         <f>B13/$B$3</f>
-        <v>3.3E-15</v>
+        <v>1.1200000000000001E-15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -2214,9 +2217,9 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <f>$B$4/B14</f>
-        <v>0.19945816875757577</v>
+        <v>0.58768924723214289</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -2239,7 +2242,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15/$B$2</f>
-        <v>1.9945816875757577E-7</v>
+        <v>5.8768924723214289E-7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -2260,17 +2263,17 @@
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <f>B13*LN(2)</f>
-        <v>2.2873856958478194</v>
+        <v>0.77632484222713882</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>C13</f>
         <v>fs</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f>D13*LN(2)</f>
-        <v>0.34657359027997264</v>
+        <v>0.12476649250079015</v>
       </c>
       <c r="F17" s="4">
         <v>1.5</v>

--- a/Calc_Width_Lifetime.xlsx
+++ b/Calc_Width_Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Si24\root_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09EA32-52D0-4A76-ABD9-A6F9FA2AC163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A74E2-4D99-4AE8-AB2F-7234F7D398BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8004" yWindow="-24" windowWidth="15144" windowHeight="12000" xr2:uid="{54B87DC3-80D2-408F-9ECA-DC6AAEA4FCE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{54B87DC3-80D2-408F-9ECA-DC6AAEA4FCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1934,7 +1937,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2029,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="6">
-        <v>72000</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="B7" s="3">
         <f>B6/$B$2</f>
-        <v>7.1999999999999995E-2</v>
+        <v>5.0000000000000001E-9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2075,7 +2078,7 @@
       </c>
       <c r="B8" s="2">
         <f>B4/$B$6</f>
-        <v>9.1418327347222223E-21</v>
+        <v>1.3164239138000002E-13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -2098,7 +2101,7 @@
       </c>
       <c r="B9" s="9">
         <f>B8*$B$3</f>
-        <v>9.1418327347222216E-6</v>
+        <v>131.64239138000002</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -2121,7 +2124,7 @@
       </c>
       <c r="B10" s="8">
         <f>B9*LN(2)</f>
-        <v>6.3366355852233222E-6</v>
+        <v>91.247552427215865</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>C9</f>
